--- a/biology/Botanique/Marasmius_alliaceus/Marasmius_alliaceus.xlsx
+++ b/biology/Botanique/Marasmius_alliaceus/Marasmius_alliaceus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mycetinis alliaceus, le Marasme à odeur d'ail ou Marasme alliacé, est un champignon basidiomycète de la famille des Marasmiacées. C'est l'un des plus gros de sa famille. On le trouve du début de l'été à la fin de l'automne.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Marasmius alliaceus (Jacq.) Fr. 1838</t>
         </is>
@@ -541,11 +555,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le chapeau (1-4 cm) est gris-brun foncé, humide. Il pâlit avec l'âge et devient beige. Ce champignon est hygrophane, ses lames sont blanchâtres à gris-blanchâtres. Elles sont adhérentes.
 Mycetinis alliaceus présente une forte odeur d'ail ce qui facilite son identification. Le pied est brun à noir, raide et fibreux, très droit et fin, avec présence de pruine.
-Ce champignon est trouvé dans les sols calcaires, dans les hêtraies, sur bois mort, sur racines et feuilles en décomposition[1].
+Ce champignon est trouvé dans les sols calcaires, dans les hêtraies, sur bois mort, sur racines et feuilles en décomposition.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Non toxique, seul le chapeau peut présenter un relatif intérêt bien qu'étant peu charnu : il peut remplacer l'ail dans un plat destiné aux personnes allergiques à cette plante. Le pied est souvent jugé trop coriace pour être cuisiné. Certains le jugent immangeable et invoquent aussi sa saveur trop brûlante[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Non toxique, seul le chapeau peut présenter un relatif intérêt bien qu'étant peu charnu : il peut remplacer l'ail dans un plat destiné aux personnes allergiques à cette plante. Le pied est souvent jugé trop coriace pour être cuisiné. Certains le jugent immangeable et invoquent aussi sa saveur trop brûlante.
 </t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>Confusions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Marasmus prasiosmus.
-Marasmus scorodonius[1].</t>
+Marasmus scorodonius.</t>
         </is>
       </c>
     </row>
